--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/8_Antalya_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/8_Antalya_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83ED36C0-C17E-49AA-BDFE-7BFD772F820F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9D00D1E-7153-4660-8752-DE85B12039C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="686" xr2:uid="{3BFA494C-6696-4EAF-9D9C-334C9D8A9054}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="686" xr2:uid="{EF5408CC-663D-4A6C-A334-8F67695FE728}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -909,15 +909,15 @@
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{9A73F131-A4C5-418B-9EC4-BE1333617050}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{2B0017B3-1C86-4502-9C4B-311CCD07432F}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{A6D68BE0-390A-4690-BA09-84AD32ED6ED4}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{121EB5F1-D12D-4FDF-A21E-AC5B380D2508}"/>
-    <cellStyle name="Normal 4" xfId="5" xr:uid="{EE9DCD73-5B4E-48C2-8443-A6672227D790}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{F89E856F-1832-48A3-886A-3F4634602984}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{40531582-6E9C-40AF-8DF7-F4D6E9DDBD16}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{7F25A468-89DF-47B6-B6BE-C42BC1332A2F}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{4FC76B0E-BA00-4B93-99FA-8A720B333143}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{002A6EB6-8936-4D6B-A975-8D26E87B8D26}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{EE5B86BB-CBAC-4AFC-B1CA-3B323D66F2C1}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{30A98A95-C87A-43F1-A0EA-70B6250F713F}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{CEF28027-DB80-4EC7-9BC7-BC319317B9FF}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{B0914BD2-A51F-464E-8A48-D0D6E23482D2}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{D5276725-ED3E-4FC8-83CB-E232A8904931}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{FAD3D0A3-2638-4BAA-AEB7-B88E5FA67B21}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{60EF83B2-31DD-49FE-A9B8-799C0E7F124E}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{2DA0B90B-CB4D-440B-A1EE-41A3DA631AD1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1287,7 +1287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{083FA9B1-0EA7-47C1-BF28-74EF3D922696}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325F0107-5512-4D78-A677-5D0945588151}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2614,7 +2614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A086793-CA49-464E-932D-68CC5423C812}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAFD1844-8C94-4AF9-B0D8-4EB64F102963}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3940,7 +3940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B49DBEC-15FF-4CE1-A867-34471B9051F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81598603-73C2-431E-B964-6AA0FE7BE79A}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5266,7 +5266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52700850-D8F7-4EB8-AE0C-05FB2917F1CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B64B029-3C24-4862-8756-DEB96A833797}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6582,7 +6582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392AC647-8EA1-438C-9580-033B4F419676}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35B8857-AF40-4CF5-A2EB-B067A3DA371F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7909,7 +7909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B297F8-8DD8-43FA-95D6-1E6F67F563E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20B9521-D8F3-4EAB-9FAD-42D3FE75E3DC}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -9237,7 +9237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86F2857-86C6-470E-9BA8-822E48FD0946}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4AD396-7771-4E61-A4FE-50132F705793}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -10565,7 +10565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307D8BCB-1D6F-4DC0-AB22-8A7457047709}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB867D4-F546-4CC4-9B98-DA65B5C30D40}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -11893,7 +11893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63710001-969A-4853-B157-8D1B8CD1EABD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42873EB1-7030-4316-909F-C5AB9A2BD337}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -13221,7 +13221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AAE065-69ED-4D3F-9E34-76289F995D0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAA1DDE-8D7F-4DB2-AE4E-8A2B24DBB6E8}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -14551,7 +14551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42854601-7942-4580-9655-3E5FB822CFAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D7E1A7-7CD5-4F2A-B18E-DD21ECAD6903}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -15877,7 +15877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19BDDFC-B050-4E48-A035-23E2FE8246CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0715480-2707-435A-A5DB-38154F6B00C2}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
